--- a/data/input/absenteeism_data_47.xlsx
+++ b/data/input/absenteeism_data_47.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>83810</v>
+        <v>90332</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thiago Ramos</t>
+          <t>Bruno Melo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>6628.25</v>
+        <v>4651.79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>19713</v>
+        <v>22565</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Guilherme Barbosa</t>
+          <t>Emilly Freitas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,51 +523,51 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45092</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>4487.69</v>
+        <v>8171.46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>78134</v>
+        <v>63601</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Igor Monteiro</t>
+          <t>João Vitor Araújo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45079</v>
+        <v>45106</v>
       </c>
       <c r="G4" t="n">
-        <v>7504.89</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3337</v>
+        <v>93166</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Francisco Campos</t>
+          <t>Manuela Santos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,191 +577,191 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45093</v>
+        <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>7400.67</v>
+        <v>3266.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25769</v>
+        <v>25752</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isis Gomes</t>
+          <t>Nathan Rodrigues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45095</v>
       </c>
       <c r="G6" t="n">
-        <v>7607.21</v>
+        <v>4843.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>58424</v>
+        <v>58576</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Guilherme da Costa</t>
+          <t>Davi Luiz Rezende</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>4270.06</v>
+        <v>5627.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17902</v>
+        <v>57134</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Evelyn Nogueira</t>
+          <t>Srta. Lara da Mota</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="G8" t="n">
-        <v>10896.17</v>
+        <v>11389.16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1516</v>
+        <v>86971</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nina Moraes</t>
+          <t>Sra. Maria Vitória Souza</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45087</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>10649.97</v>
+        <v>11250.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4387</v>
+        <v>85852</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Melissa Alves</t>
+          <t>João Felipe Aragão</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>5422.81</v>
+        <v>11997.98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3435</v>
+        <v>86406</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Vitória Jesus</t>
+          <t>Giovanna Nascimento</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45081</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>6056.38</v>
+        <v>4910.56</v>
       </c>
     </row>
   </sheetData>
